--- a/일정표.xlsx
+++ b/일정표.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$W$15</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>2월 4주</t>
   </si>
@@ -102,59 +105,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>보드 구매, 서적 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTL 합성 및 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C Interface 구현(W/R)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MIPI Data to AXI data Bus Module </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AXI VDMA Module </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Flow Control Block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Output</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Sensor Init</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verilog 기본 문법 및 HDL 예제 풀이 (GPIO 제어)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool 사용방법 (보드 입고 후 진행 예정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 교육(Zynq를 이용한 SoC 개발 입문)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 교육(Zynq SoC Architecture 이해 및 설계)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/8~9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/18~19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발
+(MIPI data RX)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발
+(I2C W/R)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발
+(Video Output)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 및 Dubeging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 TEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2월 3주
-(2/11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보드 구매, 서적 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imgae Data를 HDMI로 출력</t>
-  </si>
-  <si>
-    <t>RTL 합성 및 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C Interface 구현(W/R)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MIPI Data to AXI data Bus Module </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AXI VDMA Module </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Flow Control Block</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Sensor Init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verilog 기본 문법 및 HDL 예제 풀이 (GPIO 제어)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool 사용방법 (보드 입고 후 진행 예정)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자원 수집 및 기초 학습</t>
+(2/13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육 - 1차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육 - 2차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위두솔루션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리버트론</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -203,12 +258,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -220,33 +290,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -264,6 +352,1694 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="오른쪽 화살표 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981574" y="647700"/>
+          <a:ext cx="752475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="오른쪽 화살표 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="962025"/>
+          <a:ext cx="1142999" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="오른쪽 화살표 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="1285875"/>
+          <a:ext cx="1142999" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="오른쪽 화살표 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="1590675"/>
+          <a:ext cx="1142999" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="오른쪽 화살표 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="2228850"/>
+          <a:ext cx="1162050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="오른쪽 화살표 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677274" y="2524125"/>
+          <a:ext cx="847725" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="오른쪽 화살표 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572624" y="2847975"/>
+          <a:ext cx="1162051" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="오른쪽 화살표 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="3152775"/>
+          <a:ext cx="1152526" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="오른쪽 화살표 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="3781425"/>
+          <a:ext cx="1171576" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="오른쪽 화살표 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13773150" y="4095750"/>
+          <a:ext cx="1190626" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="오른쪽 화살표 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14963775" y="4410075"/>
+          <a:ext cx="1771650" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="419938" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="839876" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1259815" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1679753" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2099691" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2519629" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="2939567" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3359506" algn="l" defTabSz="839876" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1700" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,216 +2305,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="33" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="2:23" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="C2" s="6"/>
+      <c r="D2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+    <row r="8" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5"/>
-      <c r="G5"/>
+    <row r="13" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
+    <row r="14" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="12">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="12">
+        <v>700000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/일정표.xlsx
+++ b/일정표.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. JOB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10965"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="프로젝트 일정" sheetId="1" r:id="rId1"/>
+    <sheet name="교육 일정" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$W$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'프로젝트 일정'!$B$2:$Y$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>2월 4주</t>
   </si>
@@ -220,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +245,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +264,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -282,15 +296,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,9 +333,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -327,8 +341,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -337,8 +351,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2034,6 +2049,154 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="모서리가 둥근 사각형 설명선 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12292853" y="5266766"/>
+          <a:ext cx="1400735" cy="661146"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20184"/>
+            <a:gd name="adj2" fmla="val -89618"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>차 중간 결과 발표</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>19.05.03</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>275665</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="모서리가 둥근 사각형 설명선 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17218959" y="5318313"/>
+          <a:ext cx="1080247" cy="661146"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20184"/>
+            <a:gd name="adj2" fmla="val -89618"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>차 결과 발표</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>19.06.28</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2308,43 +2471,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:W15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="6" customWidth="1"/>
     <col min="4" max="23" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="10.25" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -2359,7 +2524,7 @@
       <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -2371,7 +2536,7 @@
       <c r="R2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -2394,10 +2559,10 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
@@ -2416,16 +2581,16 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
@@ -2444,14 +2609,14 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
@@ -2470,14 +2635,14 @@
       <c r="W5" s="4"/>
     </row>
     <row r="6" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
@@ -2526,7 +2691,7 @@
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2554,7 +2719,7 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2580,7 +2745,7 @@
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2608,7 +2773,7 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
@@ -2664,7 +2829,7 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2692,7 +2857,7 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="2:23" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
@@ -2745,28 +2910,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="12">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="12">
-        <v>700000</v>
-      </c>
-    </row>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B4:B6"/>
@@ -2776,7 +2920,57 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="43.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4">
+        <v>550000</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4">
+        <v>700000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>